--- a/biology/Origine et évolution du vivant/Provora/Provora.xlsx
+++ b/biology/Origine et évolution du vivant/Provora/Provora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Provora est un supergroupe d'eucaryotes Diaphoretickes regroupant deux embranchements de microorganismes eucaryotes prédateurs d’autres microorganismes.
-Dix souches ont été isolées et cultivées en 2022. Leur découverte si tardive s'explique par leur faible nombre. Leur ARN ribosomique 18S est très différent de celui des autres eucaryotes, ce qui explique qu’ils aient été placés (taxonomiquement) dans un supergroupe distinct[1],[2].
+Dix souches ont été isolées et cultivées en 2022. Leur découverte si tardive s'explique par leur faible nombre. Leur ARN ribosomique 18S est très différent de celui des autres eucaryotes, ce qui explique qu’ils aient été placés (taxonomiquement) dans un supergroupe distinct,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Denis V. Tikhonenkov, Kirill V. Mikhailov, Ryan M. R. Gawryluk, Artem O. Belyaev, Varsha Mathur, Sergey A. Karpov, Dmitry G. Zagumyonnyi, Anastasia S. Borodina, Kristina I. Prokina, Alexander P. Mylnikov, Vladimir V. Aleoshin &amp; Patrick J. Keeling, « Microbial predators form a new supergroup of eukaryotes », Nature, NPG et Springer Science+Business Media, vol. 612,‎ 7 décembre 2022, p. 714–719 (ISSN 1476-4687 et 0028-0836, OCLC 01586310, DOI 10.1038/S41586-022-05511-5)</t>
         </is>
@@ -542,10 +556,12 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cladogramme externe[2]
-Cladogramme interne[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cladogramme externe
+Cladogramme interne</t>
         </is>
       </c>
     </row>
